--- a/Project Documents/IAC IP23 - Live Project - RAID log.xlsx
+++ b/Project Documents/IAC IP23 - Live Project - RAID log.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IAC 2023\Live Project Machine Learning\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IAC 2023\Live Project Machine Learning\Output - Github\Project Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6D1F81-FF97-467C-BFA5-A3CCF7917DE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D39DA20-7DB2-4D6E-81CD-279AB888F97E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B540A99C-BEBA-A243-8286-4FE7C31F3F6F}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="55">
   <si>
     <t>RAID Log</t>
   </si>
@@ -243,6 +243,9 @@
   </si>
   <si>
     <t>Regularly update and fine-tune the model to ensure accurate predictions.</t>
+  </si>
+  <si>
+    <t>IP23-000346</t>
   </si>
 </sst>
 </file>
@@ -1256,7 +1259,7 @@
   <dimension ref="A1:AA998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1386,7 +1389,9 @@
       <c r="E3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="15"/>
+      <c r="F3" s="15" t="s">
+        <v>54</v>
+      </c>
       <c r="G3" s="8" t="s">
         <v>12</v>
       </c>
@@ -30586,12 +30591,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3e1c734f-cd3c-409a-b830-21836909dd77">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -30806,19 +30812,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3e1c734f-cd3c-409a-b830-21836909dd77">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F03BBE8-E33D-4A95-8B6C-1AB1F5768F06}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E014BF56-3A5E-4CFC-9B48-E78822C7A14C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3e1c734f-cd3c-409a-b830-21836909dd77"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -30843,11 +30850,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E014BF56-3A5E-4CFC-9B48-E78822C7A14C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F03BBE8-E33D-4A95-8B6C-1AB1F5768F06}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3e1c734f-cd3c-409a-b830-21836909dd77"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>